--- a/Payroll.xlsx
+++ b/Payroll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manjunathkannavalli/Documents/GitHub/Excel projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4A4DC06-5214-FA4A-B750-C2C834FC6E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB683E77-074A-324F-9F20-CDF082860A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19320" yWindow="0" windowWidth="19080" windowHeight="21600" xr2:uid="{B002AAB8-153A-9D44-8AA4-B0A8464A462C}"/>
   </bookViews>
@@ -32,6 +32,84 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{59E5B372-0ED2-2F45-AAED-8E2BC1C87572}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">=RAND()*(88-33)+33
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{60710678-BEFC-5F42-8BE2-1F3564682F40}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>randbetween(28,60)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
@@ -123,7 +201,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -143,6 +231,26 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -161,16 +269,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -482,25 +595,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F2A67A-A381-5B45-89B3-7EF045F88E25}">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F2A67A-A381-5B45-89B3-7EF045F88E25}">
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F4" sqref="F4:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
         <v>3</v>
       </c>
@@ -508,7 +622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -525,7 +639,7 @@
         <v>36892</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -537,8 +651,19 @@
         <f>LEFT(A4,FIND(" ",A4)-1)</f>
         <v>Keven</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D4" s="5">
+        <v>17.319083182148937</v>
+      </c>
+      <c r="E4">
+        <v>37</v>
+      </c>
+      <c r="F4" s="6">
+        <f>D4*E4</f>
+        <v>640.80607773951067</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -550,8 +675,19 @@
         <f t="shared" ref="C5:C24" si="1">LEFT(A5,FIND(" ",A5)-1)</f>
         <v>Kristin</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" s="5">
+        <v>9.4015828676531488</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" ref="F5:F24" si="2">D5*E5</f>
+        <v>329.05540036786022</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -563,8 +699,19 @@
         <f t="shared" si="1"/>
         <v>Avery</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D6" s="5">
+        <v>14.417995596406641</v>
+      </c>
+      <c r="E6">
+        <v>44</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="2"/>
+        <v>634.39180624189225</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -576,8 +723,19 @@
         <f t="shared" si="1"/>
         <v>Boris</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7" s="5">
+        <v>13.93025256326224</v>
+      </c>
+      <c r="E7">
+        <v>34</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="2"/>
+        <v>473.62858715091613</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -589,8 +747,19 @@
         <f t="shared" si="1"/>
         <v>Leif</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8" s="5">
+        <v>24.30062885114156</v>
+      </c>
+      <c r="E8">
+        <v>33</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="2"/>
+        <v>801.92075208767153</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -602,8 +771,19 @@
         <f t="shared" si="1"/>
         <v>Fredric</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D9" s="5">
+        <v>20.27748829941725</v>
+      </c>
+      <c r="E9">
+        <v>47</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="2"/>
+        <v>953.0419500726108</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -615,8 +795,19 @@
         <f t="shared" si="1"/>
         <v>Sherry</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D10" s="5">
+        <v>38.292466722620993</v>
+      </c>
+      <c r="E10">
+        <v>44</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="2"/>
+        <v>1684.8685357953236</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -628,8 +819,19 @@
         <f t="shared" si="1"/>
         <v>Donte</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D11" s="5">
+        <v>20.557545884963929</v>
+      </c>
+      <c r="E11">
+        <v>33</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="2"/>
+        <v>678.39901420380966</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -641,8 +843,19 @@
         <f t="shared" si="1"/>
         <v>Bobby</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D12" s="5">
+        <v>44.074821699922282</v>
+      </c>
+      <c r="E12">
+        <v>56</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="2"/>
+        <v>2468.1900151956479</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -654,8 +867,19 @@
         <f t="shared" si="1"/>
         <v>Kenya</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D13" s="5">
+        <v>23.687075586701013</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="2"/>
+        <v>710.61226760103045</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -667,8 +891,19 @@
         <f t="shared" si="1"/>
         <v>Ola</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D14" s="5">
+        <v>34.007667349442876</v>
+      </c>
+      <c r="E14">
+        <v>38</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="2"/>
+        <v>1292.2913592788293</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -680,8 +915,19 @@
         <f t="shared" si="1"/>
         <v>Graham</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D15" s="5">
+        <v>38.764638188928238</v>
+      </c>
+      <c r="E15">
+        <v>34</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="2"/>
+        <v>1317.99769842356</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -693,8 +939,19 @@
         <f t="shared" si="1"/>
         <v>Morgan</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="5">
+        <v>16.289999690547688</v>
+      </c>
+      <c r="E16">
+        <v>40</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="2"/>
+        <v>651.59998762190753</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -706,8 +963,19 @@
         <f t="shared" si="1"/>
         <v>Angie</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="5">
+        <v>21.318719509364385</v>
+      </c>
+      <c r="E17">
+        <v>33</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="2"/>
+        <v>703.51774380902475</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -719,8 +987,19 @@
         <f t="shared" si="1"/>
         <v>Jarvis</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="5">
+        <v>28.988451917645811</v>
+      </c>
+      <c r="E18">
+        <v>33</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="2"/>
+        <v>956.61891328231172</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -732,8 +1011,19 @@
         <f t="shared" si="1"/>
         <v>Otto</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="5">
+        <v>35.413676270391093</v>
+      </c>
+      <c r="E19">
+        <v>37</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="2"/>
+        <v>1310.3060220044704</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -745,8 +1035,19 @@
         <f t="shared" si="1"/>
         <v>Lea</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="5">
+        <v>37.279537558799582</v>
+      </c>
+      <c r="E20">
+        <v>48</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="2"/>
+        <v>1789.4178028223801</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -758,8 +1059,19 @@
         <f t="shared" si="1"/>
         <v>Marvin</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="5">
+        <v>41.626199130137181</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="2"/>
+        <v>2081.3099565068592</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -771,8 +1083,19 @@
         <f t="shared" si="1"/>
         <v>Booker</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="5">
+        <v>40.970900479750654</v>
+      </c>
+      <c r="E22">
+        <v>49</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="2"/>
+        <v>2007.5741235077821</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -784,8 +1107,19 @@
         <f t="shared" si="1"/>
         <v>Fanny</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="5">
+        <v>41.163387310843397</v>
+      </c>
+      <c r="E23">
+        <v>45</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="2"/>
+        <v>1852.3524289879529</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -797,8 +1131,23 @@
         <f t="shared" si="1"/>
         <v>Long</v>
       </c>
+      <c r="D24" s="5">
+        <v>23.72558745402047</v>
+      </c>
+      <c r="E24">
+        <v>28</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="2"/>
+        <v>664.31644871257322</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Payroll.xlsx
+++ b/Payroll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manjunathkannavalli/Documents/GitHub/Excel projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB683E77-074A-324F-9F20-CDF082860A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC4E1A5-27B6-D44E-923A-6720612D67D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19320" yWindow="0" windowWidth="19080" windowHeight="21600" xr2:uid="{B002AAB8-153A-9D44-8AA4-B0A8464A462C}"/>
   </bookViews>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Employee Payroll</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Hours worked</t>
   </si>
   <si>
-    <t>Pay</t>
-  </si>
-  <si>
     <t>Keven Norman</t>
   </si>
   <si>
@@ -195,14 +192,30 @@
   </si>
   <si>
     <t>Last name</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>pay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -252,15 +265,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -268,19 +299,161 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -596,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F2A67A-A381-5B45-89B3-7EF045F88E25}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F24"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,537 +787,612 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E2" t="s">
+    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>36892</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="12" t="str">
         <f>RIGHT(A4,LEN(A4)-FIND(" ",A4))</f>
         <v>Norman</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="12" t="str">
         <f>LEFT(A4,FIND(" ",A4)-1)</f>
         <v>Keven</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="15">
         <v>17.319083182148937</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="18">
         <v>37</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <f>D4*E4</f>
         <v>640.80607773951067</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="str">
+      <c r="A5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="13" t="str">
         <f t="shared" ref="B5:B24" si="0">RIGHT(A5,LEN(A5)-FIND(" ",A5))</f>
         <v>Werner</v>
       </c>
-      <c r="C5" s="3" t="str">
+      <c r="C5" s="13" t="str">
         <f t="shared" ref="C5:C24" si="1">LEFT(A5,FIND(" ",A5)-1)</f>
         <v>Kristin</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="16">
         <v>9.4015828676531488</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="19">
         <v>35</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f t="shared" ref="F5:F24" si="2">D5*E5</f>
         <v>329.05540036786022</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Barber</v>
+      </c>
+      <c r="C6" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>Avery</v>
+      </c>
+      <c r="D6" s="16">
+        <v>14.417995596406641</v>
+      </c>
+      <c r="E6" s="19">
+        <v>44</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="2"/>
+        <v>634.39180624189225</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Barber</v>
-      </c>
-      <c r="C6" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Avery</v>
-      </c>
-      <c r="D6" s="5">
-        <v>14.417995596406641</v>
-      </c>
-      <c r="E6">
+      <c r="B7" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Gibson</v>
+      </c>
+      <c r="C7" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>Boris</v>
+      </c>
+      <c r="D7" s="16">
+        <v>13.93025256326224</v>
+      </c>
+      <c r="E7" s="19">
+        <v>34</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="2"/>
+        <v>473.62858715091613</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Mack</v>
+      </c>
+      <c r="C8" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>Leif</v>
+      </c>
+      <c r="D8" s="16">
+        <v>24.30062885114156</v>
+      </c>
+      <c r="E8" s="19">
+        <v>33</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="2"/>
+        <v>801.92075208767153</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Peters</v>
+      </c>
+      <c r="C9" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>Fredric</v>
+      </c>
+      <c r="D9" s="16">
+        <v>20.27748829941725</v>
+      </c>
+      <c r="E9" s="19">
+        <v>47</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="2"/>
+        <v>953.0419500726108</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Bowman</v>
+      </c>
+      <c r="C10" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>Sherry</v>
+      </c>
+      <c r="D10" s="16">
+        <v>38.292466722620993</v>
+      </c>
+      <c r="E10" s="19">
         <v>44</v>
       </c>
-      <c r="F6" s="6">
-        <f t="shared" si="2"/>
-        <v>634.39180624189225</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Gibson</v>
-      </c>
-      <c r="C7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Boris</v>
-      </c>
-      <c r="D7" s="5">
-        <v>13.93025256326224</v>
-      </c>
-      <c r="E7">
+      <c r="F10" s="5">
+        <f t="shared" si="2"/>
+        <v>1684.8685357953236</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Richard</v>
+      </c>
+      <c r="C11" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>Donte</v>
+      </c>
+      <c r="D11" s="16">
+        <v>20.557545884963929</v>
+      </c>
+      <c r="E11" s="19">
+        <v>33</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="2"/>
+        <v>678.39901420380966</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Horton</v>
+      </c>
+      <c r="C12" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>Bobby</v>
+      </c>
+      <c r="D12" s="16">
+        <v>44.074821699922282</v>
+      </c>
+      <c r="E12" s="19">
+        <v>56</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="2"/>
+        <v>2468.1900151956479</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Montoya</v>
+      </c>
+      <c r="C13" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>Kenya</v>
+      </c>
+      <c r="D13" s="16">
+        <v>23.687075586701013</v>
+      </c>
+      <c r="E13" s="19">
+        <v>30</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="2"/>
+        <v>710.61226760103045</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Lara</v>
+      </c>
+      <c r="C14" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>Ola</v>
+      </c>
+      <c r="D14" s="16">
+        <v>34.007667349442876</v>
+      </c>
+      <c r="E14" s="19">
+        <v>38</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="2"/>
+        <v>1292.2913592788293</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Carey</v>
+      </c>
+      <c r="C15" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>Graham</v>
+      </c>
+      <c r="D15" s="16">
+        <v>38.764638188928238</v>
+      </c>
+      <c r="E15" s="19">
         <v>34</v>
       </c>
-      <c r="F7" s="6">
-        <f t="shared" si="2"/>
-        <v>473.62858715091613</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Mack</v>
-      </c>
-      <c r="C8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Leif</v>
-      </c>
-      <c r="D8" s="5">
-        <v>24.30062885114156</v>
-      </c>
-      <c r="E8">
+      <c r="F15" s="5">
+        <f t="shared" si="2"/>
+        <v>1317.99769842356</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Owens</v>
+      </c>
+      <c r="C16" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>Morgan</v>
+      </c>
+      <c r="D16" s="16">
+        <v>16.289999690547688</v>
+      </c>
+      <c r="E16" s="19">
+        <v>40</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="2"/>
+        <v>651.59998762190753</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Norton</v>
+      </c>
+      <c r="C17" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>Angie</v>
+      </c>
+      <c r="D17" s="16">
+        <v>21.318719509364385</v>
+      </c>
+      <c r="E17" s="19">
         <v>33</v>
       </c>
-      <c r="F8" s="6">
-        <f t="shared" si="2"/>
-        <v>801.92075208767153</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Peters</v>
-      </c>
-      <c r="C9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Fredric</v>
-      </c>
-      <c r="D9" s="5">
-        <v>20.27748829941725</v>
-      </c>
-      <c r="E9">
-        <v>47</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="2"/>
-        <v>953.0419500726108</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Bowman</v>
-      </c>
-      <c r="C10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Sherry</v>
-      </c>
-      <c r="D10" s="5">
-        <v>38.292466722620993</v>
-      </c>
-      <c r="E10">
-        <v>44</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="2"/>
-        <v>1684.8685357953236</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Richard</v>
-      </c>
-      <c r="C11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Donte</v>
-      </c>
-      <c r="D11" s="5">
-        <v>20.557545884963929</v>
-      </c>
-      <c r="E11">
+      <c r="F17" s="5">
+        <f t="shared" si="2"/>
+        <v>703.51774380902475</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Gamble</v>
+      </c>
+      <c r="C18" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>Jarvis</v>
+      </c>
+      <c r="D18" s="16">
+        <v>28.988451917645811</v>
+      </c>
+      <c r="E18" s="19">
         <v>33</v>
       </c>
-      <c r="F11" s="6">
-        <f t="shared" si="2"/>
-        <v>678.39901420380966</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Horton</v>
-      </c>
-      <c r="C12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Bobby</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="F18" s="5">
+        <f t="shared" si="2"/>
+        <v>956.61891328231172</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Sweeney</v>
+      </c>
+      <c r="C19" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>Otto</v>
+      </c>
+      <c r="D19" s="16">
+        <v>35.413676270391093</v>
+      </c>
+      <c r="E19" s="19">
+        <v>37</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="2"/>
+        <v>1310.3060220044704</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Mccormick</v>
+      </c>
+      <c r="C20" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>Lea</v>
+      </c>
+      <c r="D20" s="16">
+        <v>37.279537558799582</v>
+      </c>
+      <c r="E20" s="19">
+        <v>48</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="2"/>
+        <v>1789.4178028223801</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Mcguire</v>
+      </c>
+      <c r="C21" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>Marvin</v>
+      </c>
+      <c r="D21" s="16">
+        <v>41.626199130137181</v>
+      </c>
+      <c r="E21" s="19">
+        <v>50</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="2"/>
+        <v>2081.3099565068592</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Hodge</v>
+      </c>
+      <c r="C22" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>Booker</v>
+      </c>
+      <c r="D22" s="16">
+        <v>40.970900479750654</v>
+      </c>
+      <c r="E22" s="19">
+        <v>49</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="2"/>
+        <v>2007.5741235077821</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Reed</v>
+      </c>
+      <c r="C23" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>Fanny</v>
+      </c>
+      <c r="D23" s="16">
+        <v>41.163387310843397</v>
+      </c>
+      <c r="E23" s="19">
+        <v>45</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="2"/>
+        <v>1852.3524289879529</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Forbes</v>
+      </c>
+      <c r="C24" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Long</v>
+      </c>
+      <c r="D24" s="17">
+        <v>23.72558745402047</v>
+      </c>
+      <c r="E24" s="20">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="2"/>
+        <v>664.31644871257322</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29">
+        <f>MAX(D4:D24)</f>
         <v>44.074821699922282</v>
       </c>
-      <c r="E12">
+      <c r="E26" s="30">
+        <f>MAX(E4:E24)</f>
         <v>56</v>
       </c>
-      <c r="F12" s="6">
-        <f t="shared" si="2"/>
+      <c r="F26" s="29">
+        <f>MAX(F4:F24)</f>
         <v>2468.1900151956479</v>
       </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Montoya</v>
-      </c>
-      <c r="C13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Kenya</v>
-      </c>
-      <c r="D13" s="5">
-        <v>23.687075586701013</v>
-      </c>
-      <c r="E13">
+    </row>
+    <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="21">
+        <f>MIN(D4:D24)</f>
+        <v>9.4015828676531488</v>
+      </c>
+      <c r="E27" s="22">
+        <f>MIN(E4:E24)</f>
+        <v>28</v>
+      </c>
+      <c r="F27" s="21">
+        <f>MIN(F4:F24)</f>
+        <v>329.05540036786022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25">
+        <f>AVERAGE(D4:D24)</f>
+        <v>27.895605053052826</v>
+      </c>
+      <c r="E28" s="26">
+        <f>AVERAGE(E4:E24)</f>
+        <v>39.428571428571431</v>
+      </c>
+      <c r="F28" s="25">
+        <f>AVERAGE(F4:F24)</f>
+        <v>1142.9627091149489</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="6">
-        <f t="shared" si="2"/>
-        <v>710.61226760103045</v>
-      </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Lara</v>
-      </c>
-      <c r="C14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Ola</v>
-      </c>
-      <c r="D14" s="5">
-        <v>34.007667349442876</v>
-      </c>
-      <c r="E14">
-        <v>38</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="2"/>
-        <v>1292.2913592788293</v>
-      </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Carey</v>
-      </c>
-      <c r="C15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Graham</v>
-      </c>
-      <c r="D15" s="5">
-        <v>38.764638188928238</v>
-      </c>
-      <c r="E15">
-        <v>34</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="2"/>
-        <v>1317.99769842356</v>
-      </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Owens</v>
-      </c>
-      <c r="C16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Morgan</v>
-      </c>
-      <c r="D16" s="5">
-        <v>16.289999690547688</v>
-      </c>
-      <c r="E16">
-        <v>40</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="2"/>
-        <v>651.59998762190753</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Norton</v>
-      </c>
-      <c r="C17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Angie</v>
-      </c>
-      <c r="D17" s="5">
-        <v>21.318719509364385</v>
-      </c>
-      <c r="E17">
-        <v>33</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="2"/>
-        <v>703.51774380902475</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Gamble</v>
-      </c>
-      <c r="C18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Jarvis</v>
-      </c>
-      <c r="D18" s="5">
-        <v>28.988451917645811</v>
-      </c>
-      <c r="E18">
-        <v>33</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" si="2"/>
-        <v>956.61891328231172</v>
-      </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Sweeney</v>
-      </c>
-      <c r="C19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Otto</v>
-      </c>
-      <c r="D19" s="5">
-        <v>35.413676270391093</v>
-      </c>
-      <c r="E19">
-        <v>37</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="2"/>
-        <v>1310.3060220044704</v>
-      </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Mccormick</v>
-      </c>
-      <c r="C20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Lea</v>
-      </c>
-      <c r="D20" s="5">
-        <v>37.279537558799582</v>
-      </c>
-      <c r="E20">
-        <v>48</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" si="2"/>
-        <v>1789.4178028223801</v>
-      </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Mcguire</v>
-      </c>
-      <c r="C21" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Marvin</v>
-      </c>
-      <c r="D21" s="5">
-        <v>41.626199130137181</v>
-      </c>
-      <c r="E21">
-        <v>50</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="2"/>
-        <v>2081.3099565068592</v>
-      </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Hodge</v>
-      </c>
-      <c r="C22" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Booker</v>
-      </c>
-      <c r="D22" s="5">
-        <v>40.970900479750654</v>
-      </c>
-      <c r="E22">
-        <v>49</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" si="2"/>
-        <v>2007.5741235077821</v>
-      </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Reed</v>
-      </c>
-      <c r="C23" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Fanny</v>
-      </c>
-      <c r="D23" s="5">
-        <v>41.163387310843397</v>
-      </c>
-      <c r="E23">
-        <v>45</v>
-      </c>
-      <c r="F23" s="6">
-        <f t="shared" si="2"/>
-        <v>1852.3524289879529</v>
-      </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Forbes</v>
-      </c>
-      <c r="C24" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Long</v>
-      </c>
-      <c r="D24" s="5">
-        <v>23.72558745402047</v>
-      </c>
-      <c r="E24">
-        <v>28</v>
-      </c>
-      <c r="F24" s="6">
-        <f t="shared" si="2"/>
-        <v>664.31644871257322</v>
-      </c>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G25" s="4"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33">
+        <f>SUM(D4:D24)</f>
+        <v>585.80770611410935</v>
+      </c>
+      <c r="E29" s="34">
+        <f t="shared" ref="E29:F29" si="3">SUM(E4:E24)</f>
+        <v>828</v>
+      </c>
+      <c r="F29" s="33">
+        <f t="shared" si="3"/>
+        <v>24002.216891413926</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
